--- a/KKP Fall 2023 Conflicts.xlsx
+++ b/KKP Fall 2023 Conflicts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin Liu\RehearsalScheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449D06D0-6D0D-4C17-A796-291B709C2D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6594C2-AF40-46EE-A987-662A2BA9C956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -921,7 +921,7 @@
   <dimension ref="A1:K993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
